--- a/15_a_normal_meal/15_a_normal_meal_data.xlsx
+++ b/15_a_normal_meal/15_a_normal_meal_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="21075" windowHeight="9525"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="20730" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Glucose Mass(mg)*</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>Fat Trigly. Uptake(mg/min)</t>
-  </si>
-  <si>
-    <t>82*</t>
   </si>
   <si>
     <t>Liver Glycogen(g)*</t>
@@ -485,7 +482,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -494,7 +493,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="24" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2">
         <v>0.5</v>
@@ -616,10 +615,10 @@
         <v>119</v>
       </c>
       <c r="G5" s="4">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H5" s="4">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1">
@@ -645,7 +644,7 @@
         <v>147</v>
       </c>
       <c r="H6" s="4">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1">
@@ -671,7 +670,7 @@
         <v>56.9</v>
       </c>
       <c r="H7" s="4">
-        <v>52.9</v>
+        <v>53.5</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1">
@@ -720,10 +719,10 @@
         <v>22.4</v>
       </c>
       <c r="G9" s="4">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="H9" s="4">
-        <v>24.4</v>
+        <v>24.7</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1">
@@ -801,7 +800,7 @@
         <v>30.4</v>
       </c>
       <c r="H12" s="4">
-        <v>60.5</v>
+        <v>60.4</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1">
@@ -827,15 +826,15 @@
         <v>161</v>
       </c>
       <c r="H13" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>13</v>
+      <c r="B14" s="4">
+        <v>82</v>
       </c>
       <c r="C14" s="4">
         <v>17</v>
@@ -850,7 +849,7 @@
         <v>91</v>
       </c>
       <c r="G14" s="4">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H14" s="4">
         <v>97</v>
@@ -858,7 +857,7 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1">
       <c r="A15" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4">
         <v>100</v>
@@ -884,7 +883,7 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1">
       <c r="A16" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="4">
         <v>19.8</v>
@@ -902,15 +901,15 @@
         <v>20.399999999999999</v>
       </c>
       <c r="G16" s="4">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="H16" s="4">
-        <v>8.1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1">
       <c r="A17" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="4">
         <v>69</v>
@@ -931,7 +930,7 @@
         <v>67</v>
       </c>
       <c r="H17" s="4">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/15_a_normal_meal/15_a_normal_meal_data.xlsx
+++ b/15_a_normal_meal/15_a_normal_meal_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>Glucose Mass(mg)*</t>
   </si>
@@ -67,13 +67,34 @@
   </si>
   <si>
     <t>Data</t>
+  </si>
+  <si>
+    <t>QCP</t>
+  </si>
+  <si>
+    <t>HumMod</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Current version of  QCP and HumMod does not use GI Tract data in the same manner. The glucose mass values are actually the total carbohydrate mass values under GI Lumen – Food.</t>
+  </si>
+  <si>
+    <t>Also, the instructions in general are outdated. Liver Glycogen is now found under Liver – Glucose/Glycogen</t>
+  </si>
+  <si>
+    <t>The instructions are even more outdated. The method used to start the patient on a meal schedule is to go to schedule and activate the overall 24-hour schedule.</t>
+  </si>
+  <si>
+    <t>Fat Trigly Uptake is not given under triglyceride metabolism so I’m using the gain in the balance box</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,13 +120,25 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -172,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
@@ -186,6 +219,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -491,7 +526,7 @@
     <col min="1" max="1" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24" thickBot="1">
+    <row r="1" spans="1:9" ht="24" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -516,8 +551,11 @@
       <c r="H1" s="2">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1">
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -543,7 +581,7 @@
         <v>13923</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1">
+    <row r="3" spans="1:9" ht="15.75" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -569,7 +607,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -595,7 +633,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1">
+    <row r="5" spans="1:9" ht="15.75" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -621,7 +659,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1">
+    <row r="6" spans="1:9" ht="15.75" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -647,7 +685,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1">
+    <row r="7" spans="1:9" ht="15.75" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -673,7 +711,7 @@
         <v>53.5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1">
+    <row r="8" spans="1:9" ht="15.75" thickBot="1">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -699,7 +737,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1">
+    <row r="9" spans="1:9" ht="15.75" thickBot="1">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -725,7 +763,7 @@
         <v>24.7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1">
+    <row r="10" spans="1:9" ht="15.75" thickBot="1">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -751,7 +789,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1">
+    <row r="11" spans="1:9" ht="15.75" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -777,7 +815,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1">
+    <row r="12" spans="1:9" ht="15.75" thickBot="1">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -803,7 +841,7 @@
         <v>60.4</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1">
+    <row r="13" spans="1:9" ht="15.75" thickBot="1">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -829,7 +867,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1">
+    <row r="14" spans="1:9" ht="15.75" thickBot="1">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -855,7 +893,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1">
+    <row r="15" spans="1:9" ht="15.75" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -881,7 +919,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1">
+    <row r="16" spans="1:9" ht="15.75" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -907,7 +945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1">
+    <row r="17" spans="1:9" ht="15.75" thickBot="1">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -932,6 +970,572 @@
       <c r="H17" s="4">
         <v>112</v>
       </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1"/>
+    <row r="19" spans="1:9" ht="24" thickBot="1">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.30555555555555552</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="I19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1903.9</v>
+      </c>
+      <c r="C20" s="4">
+        <v>28.8</v>
+      </c>
+      <c r="D20" s="4">
+        <v>18911.099999999999</v>
+      </c>
+      <c r="E20" s="4">
+        <v>36893.300000000003</v>
+      </c>
+      <c r="F20" s="4">
+        <v>54889.1</v>
+      </c>
+      <c r="G20" s="4">
+        <v>36889.1</v>
+      </c>
+      <c r="H20" s="4">
+        <v>2490.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1963.5</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+      <c r="D21" s="4">
+        <v>8164.9</v>
+      </c>
+      <c r="E21" s="4">
+        <v>14207.1</v>
+      </c>
+      <c r="F21" s="4">
+        <v>18677.8</v>
+      </c>
+      <c r="G21" s="4">
+        <v>7512.5</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1215.5999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1574.2</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <v>9967.4</v>
+      </c>
+      <c r="E22" s="4">
+        <v>15986.1</v>
+      </c>
+      <c r="F22" s="4">
+        <v>19619.2</v>
+      </c>
+      <c r="G22" s="4">
+        <v>4247.1000000000004</v>
+      </c>
+      <c r="H22" s="4">
+        <v>199.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="4">
+        <v>100.7</v>
+      </c>
+      <c r="C23" s="4">
+        <v>89.4</v>
+      </c>
+      <c r="D23" s="4">
+        <v>93.2</v>
+      </c>
+      <c r="E23" s="4">
+        <v>100.3</v>
+      </c>
+      <c r="F23" s="4">
+        <v>108.4</v>
+      </c>
+      <c r="G23" s="4">
+        <v>130.9</v>
+      </c>
+      <c r="H23" s="4">
+        <v>106.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="4">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="C24" s="4">
+        <v>88.4</v>
+      </c>
+      <c r="D24" s="4">
+        <v>85.2</v>
+      </c>
+      <c r="E24" s="4">
+        <v>84.5</v>
+      </c>
+      <c r="F24" s="4">
+        <v>81.5</v>
+      </c>
+      <c r="G24" s="4">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="H24" s="4">
+        <v>80.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="4">
+        <v>47.7</v>
+      </c>
+      <c r="C25" s="4">
+        <v>49.7</v>
+      </c>
+      <c r="D25" s="4">
+        <v>49.8</v>
+      </c>
+      <c r="E25" s="4">
+        <v>49.8</v>
+      </c>
+      <c r="F25" s="4">
+        <v>49.7</v>
+      </c>
+      <c r="G25" s="4">
+        <v>49.5</v>
+      </c>
+      <c r="H25" s="4">
+        <v>51.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="C27" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="D27" s="4">
+        <v>7.4</v>
+      </c>
+      <c r="E27" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="F27" s="4">
+        <v>6.9</v>
+      </c>
+      <c r="G27" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="H27" s="4">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="4">
+        <v>15.1</v>
+      </c>
+      <c r="C28" s="4">
+        <v>11.6</v>
+      </c>
+      <c r="D28" s="4">
+        <v>11.6</v>
+      </c>
+      <c r="E28" s="4">
+        <v>12.2</v>
+      </c>
+      <c r="F28" s="4">
+        <v>14.4</v>
+      </c>
+      <c r="G28" s="4">
+        <v>22.3</v>
+      </c>
+      <c r="H28" s="4">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="4">
+        <v>82.4</v>
+      </c>
+      <c r="C29" s="4">
+        <v>82.6</v>
+      </c>
+      <c r="D29" s="4">
+        <v>83.9</v>
+      </c>
+      <c r="E29" s="4">
+        <v>83.8</v>
+      </c>
+      <c r="F29" s="4">
+        <v>84.5</v>
+      </c>
+      <c r="G29" s="4">
+        <v>85.4</v>
+      </c>
+      <c r="H29" s="4">
+        <v>91.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="4">
+        <v>14.9</v>
+      </c>
+      <c r="C30" s="4">
+        <v>15.7</v>
+      </c>
+      <c r="D30" s="4">
+        <v>15.6</v>
+      </c>
+      <c r="E30" s="4">
+        <v>15.4</v>
+      </c>
+      <c r="F30" s="4">
+        <v>15.6</v>
+      </c>
+      <c r="G30" s="4">
+        <v>16</v>
+      </c>
+      <c r="H30" s="4">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="4">
+        <v>101.1</v>
+      </c>
+      <c r="C31" s="4">
+        <v>40.6</v>
+      </c>
+      <c r="D31" s="4">
+        <v>52.8</v>
+      </c>
+      <c r="E31" s="4">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="F31" s="4">
+        <v>116.8</v>
+      </c>
+      <c r="G31" s="4">
+        <v>170.4</v>
+      </c>
+      <c r="H31" s="4">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="4">
+        <v>113.4</v>
+      </c>
+      <c r="C32" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="D32" s="4">
+        <v>336.1</v>
+      </c>
+      <c r="E32" s="4">
+        <v>545.79999999999995</v>
+      </c>
+      <c r="F32" s="4">
+        <v>703.9</v>
+      </c>
+      <c r="G32" s="4">
+        <v>375.3</v>
+      </c>
+      <c r="H32" s="4">
+        <v>160.19999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="4">
+        <v>113.7</v>
+      </c>
+      <c r="C33" s="4">
+        <v>82.7</v>
+      </c>
+      <c r="D33" s="4">
+        <v>85.4</v>
+      </c>
+      <c r="E33" s="4">
+        <v>88.4</v>
+      </c>
+      <c r="F33" s="4">
+        <v>91.2</v>
+      </c>
+      <c r="G33" s="4">
+        <v>99</v>
+      </c>
+      <c r="H33" s="4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="4">
+        <v>20.8</v>
+      </c>
+      <c r="C34" s="4">
+        <v>18.7</v>
+      </c>
+      <c r="D34" s="4">
+        <v>18.8</v>
+      </c>
+      <c r="E34" s="4">
+        <v>19.5</v>
+      </c>
+      <c r="F34" s="4">
+        <v>20.6</v>
+      </c>
+      <c r="G34" s="4">
+        <v>27.4</v>
+      </c>
+      <c r="H34" s="4">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="4">
+        <v>68.8</v>
+      </c>
+      <c r="C35" s="4">
+        <v>72</v>
+      </c>
+      <c r="D35" s="4">
+        <v>72</v>
+      </c>
+      <c r="E35" s="4">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="F35" s="4">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="G35" s="4">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="H35" s="4">
+        <v>69.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="5"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="5"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="5"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/15_a_normal_meal/15_a_normal_meal_data.xlsx
+++ b/15_a_normal_meal/15_a_normal_meal_data.xlsx
@@ -517,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:N43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1318,25 +1318,25 @@
         <v>12</v>
       </c>
       <c r="B32" s="4">
-        <v>113.4</v>
+        <v>103.2</v>
       </c>
       <c r="C32" s="4">
-        <v>4.8</v>
+        <v>6.7</v>
       </c>
       <c r="D32" s="4">
-        <v>336.1</v>
+        <v>14.7</v>
       </c>
       <c r="E32" s="4">
-        <v>545.79999999999995</v>
+        <v>52.9</v>
       </c>
       <c r="F32" s="4">
-        <v>703.9</v>
+        <v>149.80000000000001</v>
       </c>
       <c r="G32" s="4">
-        <v>375.3</v>
+        <v>276.2</v>
       </c>
       <c r="H32" s="4">
-        <v>160.19999999999999</v>
+        <v>263.2</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="15.75" thickBot="1">

--- a/15_a_normal_meal/15_a_normal_meal_data.xlsx
+++ b/15_a_normal_meal/15_a_normal_meal_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="26">
   <si>
     <t>Glucose Mass(mg)*</t>
   </si>
@@ -88,13 +88,19 @@
   </si>
   <si>
     <t>Fat Trigly Uptake is not given under triglyceride metabolism so I’m using the gain in the balance box</t>
+  </si>
+  <si>
+    <t>% Diff</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +131,13 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -202,10 +215,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
@@ -221,11 +235,58 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -515,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="M55" sqref="M55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1537,7 +1598,571 @@
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
     </row>
+    <row r="44" spans="1:14" ht="15.75" thickBot="1"/>
+    <row r="45" spans="1:14" ht="24" thickBot="1">
+      <c r="A45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0.30555555555555552</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="I45" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="7">
+        <f>ABS((B2-B20)/B2)</f>
+        <v>1.3523316062176119E-2</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="7">
+        <f t="shared" ref="C46:H46" si="0">ABS((D2-D20)/D2)</f>
+        <v>5.8727788562042776E-2</v>
+      </c>
+      <c r="E46" s="7">
+        <f t="shared" si="0"/>
+        <v>6.5542919378941703E-2</v>
+      </c>
+      <c r="F46" s="7">
+        <f t="shared" si="0"/>
+        <v>6.7637716362895173E-2</v>
+      </c>
+      <c r="G46" s="7">
+        <f t="shared" si="0"/>
+        <v>0.1601416114564124</v>
+      </c>
+      <c r="H46" s="7">
+        <f t="shared" si="0"/>
+        <v>0.82115205056381524</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A47" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="7">
+        <f t="shared" ref="B47:H47" si="1">ABS((B3-B21)/B3)</f>
+        <v>1.3316582914572864E-2</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="7">
+        <f t="shared" si="1"/>
+        <v>1.1154172217512458E-2</v>
+      </c>
+      <c r="E47" s="7">
+        <f t="shared" si="1"/>
+        <v>1.1679999999999975E-2</v>
+      </c>
+      <c r="F47" s="7">
+        <f t="shared" si="1"/>
+        <v>1.2122494314275175E-2</v>
+      </c>
+      <c r="G47" s="7">
+        <f t="shared" si="1"/>
+        <v>2.2700663457785871E-2</v>
+      </c>
+      <c r="H47" s="7">
+        <f t="shared" si="1"/>
+        <v>4.3587726199842712E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A48" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="7">
+        <f t="shared" ref="B48:H48" si="2">ABS((B4-B22)/B4)</f>
+        <v>1.6124999999999973E-2</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="7">
+        <f t="shared" si="2"/>
+        <v>8.2189054726368518E-3</v>
+      </c>
+      <c r="E48" s="7">
+        <f t="shared" si="2"/>
+        <v>9.903381642512055E-3</v>
+      </c>
+      <c r="F48" s="7">
+        <f t="shared" si="2"/>
+        <v>1.1278536511616151E-2</v>
+      </c>
+      <c r="G48" s="7">
+        <f t="shared" si="2"/>
+        <v>4.0853658536585284E-2</v>
+      </c>
+      <c r="H48" s="7">
+        <f t="shared" si="2"/>
+        <v>9.5000000000000029E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" s="7">
+        <f t="shared" ref="B49:H49" si="3">ABS((B5-B23)/B5)</f>
+        <v>7.6146788990825665E-2</v>
+      </c>
+      <c r="C49" s="7">
+        <f t="shared" si="3"/>
+        <v>0.13164556962025323</v>
+      </c>
+      <c r="D49" s="7">
+        <f t="shared" si="3"/>
+        <v>1.8947368421052602E-2</v>
+      </c>
+      <c r="E49" s="7">
+        <f t="shared" si="3"/>
+        <v>8.8181818181818208E-2</v>
+      </c>
+      <c r="F49" s="7">
+        <f t="shared" si="3"/>
+        <v>8.9075630252100788E-2</v>
+      </c>
+      <c r="G49" s="7">
+        <f t="shared" si="3"/>
+        <v>5.5645161290322626E-2</v>
+      </c>
+      <c r="H49" s="7">
+        <f t="shared" si="3"/>
+        <v>0.36153846153846159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="7">
+        <f t="shared" ref="B50:H50" si="4">ABS((B6-B24)/B6)</f>
+        <v>0.12333333333333327</v>
+      </c>
+      <c r="C50" s="7">
+        <f t="shared" si="4"/>
+        <v>0.1247524752475247</v>
+      </c>
+      <c r="D50" s="7">
+        <f t="shared" si="4"/>
+        <v>0.21111111111111108</v>
+      </c>
+      <c r="E50" s="7">
+        <f t="shared" si="4"/>
+        <v>0.27155172413793105</v>
+      </c>
+      <c r="F50" s="7">
+        <f t="shared" si="4"/>
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="G50" s="7">
+        <f t="shared" si="4"/>
+        <v>0.47551020408163269</v>
+      </c>
+      <c r="H50" s="7">
+        <f t="shared" si="4"/>
+        <v>0.32033898305084746</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A51" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="7">
+        <f t="shared" ref="B51:H51" si="5">ABS((B7-B25)/B7)</f>
+        <v>0.13430127041742285</v>
+      </c>
+      <c r="C51" s="7">
+        <f t="shared" si="5"/>
+        <v>0.12345679012345678</v>
+      </c>
+      <c r="D51" s="7">
+        <f t="shared" si="5"/>
+        <v>0.11858407079646023</v>
+      </c>
+      <c r="E51" s="7">
+        <f t="shared" si="5"/>
+        <v>0.11858407079646023</v>
+      </c>
+      <c r="F51" s="7">
+        <f t="shared" si="5"/>
+        <v>0.1203539823008849</v>
+      </c>
+      <c r="G51" s="7">
+        <f t="shared" si="5"/>
+        <v>0.13005272407732862</v>
+      </c>
+      <c r="H51" s="7">
+        <f t="shared" si="5"/>
+        <v>4.4859813084112125E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="7">
+        <f t="shared" ref="B52:H52" si="6">ABS((B8-B26)/B8)</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="C52" s="7">
+        <f t="shared" si="6"/>
+        <v>0.36363636363636354</v>
+      </c>
+      <c r="D52" s="7">
+        <f t="shared" si="6"/>
+        <v>0.1538461538461538</v>
+      </c>
+      <c r="E52" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F52" s="7">
+        <f t="shared" si="6"/>
+        <v>0.17647058823529416</v>
+      </c>
+      <c r="G52" s="7">
+        <f t="shared" si="6"/>
+        <v>0.47619047619047616</v>
+      </c>
+      <c r="H52" s="7">
+        <f t="shared" si="6"/>
+        <v>8.3333333333333232E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="7">
+        <f t="shared" ref="B53:H53" si="7">ABS((B9-B27)/B9)</f>
+        <v>0.22368421052631571</v>
+      </c>
+      <c r="C53" s="7">
+        <f t="shared" si="7"/>
+        <v>0.49650349650349651</v>
+      </c>
+      <c r="D53" s="7">
+        <f t="shared" si="7"/>
+        <v>0.55688622754491013</v>
+      </c>
+      <c r="E53" s="7">
+        <f t="shared" si="7"/>
+        <v>0.61340206185567003</v>
+      </c>
+      <c r="F53" s="7">
+        <f t="shared" si="7"/>
+        <v>0.6919642857142857</v>
+      </c>
+      <c r="G53" s="7">
+        <f t="shared" si="7"/>
+        <v>0.81605351170568563</v>
+      </c>
+      <c r="H53" s="7">
+        <f t="shared" si="7"/>
+        <v>0.77327935222672073</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="7">
+        <f t="shared" ref="B54:H54" si="8">ABS((B10-B28)/B10)</f>
+        <v>5.6250000000000022E-2</v>
+      </c>
+      <c r="C54" s="7">
+        <f t="shared" si="8"/>
+        <v>5.4545454545454515E-2</v>
+      </c>
+      <c r="D54" s="7">
+        <f t="shared" si="8"/>
+        <v>5.4545454545454515E-2</v>
+      </c>
+      <c r="E54" s="7">
+        <f t="shared" si="8"/>
+        <v>0.10909090909090903</v>
+      </c>
+      <c r="F54" s="7">
+        <f t="shared" si="8"/>
+        <v>0.44000000000000006</v>
+      </c>
+      <c r="G54" s="7">
+        <f t="shared" si="8"/>
+        <v>2.1857142857142859</v>
+      </c>
+      <c r="H54" s="7">
+        <f t="shared" si="8"/>
+        <v>0.82727272727272738</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="7">
+        <f t="shared" ref="B55:H55" si="9">ABS((B11-B29)/B11)</f>
+        <v>6.3636363636363574E-2</v>
+      </c>
+      <c r="C55" s="7">
+        <f t="shared" si="9"/>
+        <v>0.24909090909090914</v>
+      </c>
+      <c r="D55" s="7">
+        <f t="shared" si="9"/>
+        <v>0.21588785046728967</v>
+      </c>
+      <c r="E55" s="7">
+        <f t="shared" si="9"/>
+        <v>0.1864077669902913</v>
+      </c>
+      <c r="F55" s="7">
+        <f t="shared" si="9"/>
+        <v>0.14646464646464646</v>
+      </c>
+      <c r="G55" s="7">
+        <f t="shared" si="9"/>
+        <v>7.1739130434782541E-2</v>
+      </c>
+      <c r="H55" s="7">
+        <f t="shared" si="9"/>
+        <v>0.35874125874125873</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A56" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="7">
+        <f t="shared" ref="B56:H56" si="10">ABS((B12-B30)/B12)</f>
+        <v>0.12030075187969921</v>
+      </c>
+      <c r="C56" s="7">
+        <f t="shared" si="10"/>
+        <v>0.56986301369863013</v>
+      </c>
+      <c r="D56" s="7">
+        <f t="shared" si="10"/>
+        <v>0.55932203389830504</v>
+      </c>
+      <c r="E56" s="7">
+        <f t="shared" si="10"/>
+        <v>0.55102040816326536</v>
+      </c>
+      <c r="F56" s="7">
+        <f t="shared" si="10"/>
+        <v>0.52727272727272723</v>
+      </c>
+      <c r="G56" s="7">
+        <f t="shared" si="10"/>
+        <v>0.47368421052631576</v>
+      </c>
+      <c r="H56" s="7">
+        <f t="shared" si="10"/>
+        <v>0.70529801324503305</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="7">
+        <f t="shared" ref="B57:H57" si="11">ABS((B13-B31)/B13)</f>
+        <v>0.23292682926829261</v>
+      </c>
+      <c r="C57" s="7">
+        <f t="shared" si="11"/>
+        <v>0.69166666666666676</v>
+      </c>
+      <c r="D57" s="7">
+        <f t="shared" si="11"/>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="E57" s="7">
+        <f t="shared" si="11"/>
+        <v>0.44464285714285723</v>
+      </c>
+      <c r="F57" s="7">
+        <f t="shared" si="11"/>
+        <v>0.29777777777777775</v>
+      </c>
+      <c r="G57" s="7">
+        <f t="shared" si="11"/>
+        <v>5.83850931677019E-2</v>
+      </c>
+      <c r="H57" s="7">
+        <f t="shared" si="11"/>
+        <v>3.5031847133757961E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="7">
+        <f t="shared" ref="B58:H58" si="12">ABS((B14-B32)/B14)</f>
+        <v>0.25853658536585367</v>
+      </c>
+      <c r="C58" s="7">
+        <f t="shared" si="12"/>
+        <v>0.60588235294117654</v>
+      </c>
+      <c r="D58" s="7">
+        <f t="shared" si="12"/>
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="E58" s="7">
+        <f t="shared" si="12"/>
+        <v>7.9591836734693847E-2</v>
+      </c>
+      <c r="F58" s="7">
+        <f t="shared" si="12"/>
+        <v>0.6461538461538463</v>
+      </c>
+      <c r="G58" s="7">
+        <f t="shared" si="12"/>
+        <v>0.47700534759358282</v>
+      </c>
+      <c r="H58" s="7">
+        <f t="shared" si="12"/>
+        <v>1.71340206185567</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A59" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="7">
+        <f t="shared" ref="B59:H59" si="13">ABS((B15-B33)/B15)</f>
+        <v>0.13700000000000004</v>
+      </c>
+      <c r="C59" s="7">
+        <f t="shared" si="13"/>
+        <v>0.23432835820895526</v>
+      </c>
+      <c r="D59" s="7">
+        <f t="shared" si="13"/>
+        <v>0.25588235294117656</v>
+      </c>
+      <c r="E59" s="7">
+        <f t="shared" si="13"/>
+        <v>0.28115942028985513</v>
+      </c>
+      <c r="F59" s="7">
+        <f t="shared" si="13"/>
+        <v>0.30285714285714288</v>
+      </c>
+      <c r="G59" s="7">
+        <f t="shared" si="13"/>
+        <v>0.30263157894736842</v>
+      </c>
+      <c r="H59" s="7">
+        <f t="shared" si="13"/>
+        <v>0.46052631578947367</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" s="7">
+        <f t="shared" ref="B60:H60" si="14">ABS((B16-B34)/B16)</f>
+        <v>5.0505050505050504E-2</v>
+      </c>
+      <c r="C60" s="7">
+        <f t="shared" si="14"/>
+        <v>0.66964285714285721</v>
+      </c>
+      <c r="D60" s="7">
+        <f t="shared" si="14"/>
+        <v>0.52845528455284552</v>
+      </c>
+      <c r="E60" s="7">
+        <f t="shared" si="14"/>
+        <v>0.21875</v>
+      </c>
+      <c r="F60" s="7">
+        <f t="shared" si="14"/>
+        <v>9.8039215686275914E-3</v>
+      </c>
+      <c r="G60" s="7">
+        <f t="shared" si="14"/>
+        <v>7.0312499999999889E-2</v>
+      </c>
+      <c r="H60" s="7">
+        <f t="shared" si="14"/>
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A61" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" s="7">
+        <f t="shared" ref="B61:H61" si="15">ABS((B17-B35)/B17)</f>
+        <v>2.8985507246377224E-3</v>
+      </c>
+      <c r="C61" s="7">
+        <f t="shared" si="15"/>
+        <v>0.15294117647058825</v>
+      </c>
+      <c r="D61" s="7">
+        <f t="shared" si="15"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="E61" s="7">
+        <f t="shared" si="15"/>
+        <v>0.11851851851851845</v>
+      </c>
+      <c r="F61" s="7">
+        <f t="shared" si="15"/>
+        <v>7.3684210526315713E-2</v>
+      </c>
+      <c r="G61" s="7">
+        <f t="shared" si="15"/>
+        <v>5.9701492537314283E-3</v>
+      </c>
+      <c r="H61" s="7">
+        <f t="shared" si="15"/>
+        <v>0.38125000000000003</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="B46:H61">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="between">
+      <formula>0.5</formula>
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
